--- a/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,15 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['37', '71']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['9', '77']</t>
   </si>
   <si>
@@ -395,6 +404,12 @@
   </si>
   <si>
     <t>['42']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['35', '58', '75']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK34"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +1015,7 @@
         <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1087,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
         <v>2</v>
@@ -1191,7 +1206,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1281,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1764,7 +1779,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2042,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2146,7 +2161,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2719,7 +2734,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3000,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3101,7 +3116,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3188,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3292,7 +3307,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4629,7 +4644,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4716,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU21">
         <v>1.29</v>
@@ -5011,7 +5026,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5202,7 +5217,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5393,7 +5408,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5584,7 +5599,7 @@
         <v>94</v>
       </c>
       <c r="P26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5775,7 +5790,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -5966,7 +5981,7 @@
         <v>89</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6539,7 +6554,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6730,7 +6745,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7112,7 +7127,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7254,6 +7269,579 @@
       </c>
       <c r="BK34">
         <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5188509</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44996.04166666666</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>111</v>
+      </c>
+      <c r="P35" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q35">
+        <v>7</v>
+      </c>
+      <c r="R35">
+        <v>8</v>
+      </c>
+      <c r="S35">
+        <v>15</v>
+      </c>
+      <c r="T35">
+        <v>2.55</v>
+      </c>
+      <c r="U35">
+        <v>2.1</v>
+      </c>
+      <c r="V35">
+        <v>4</v>
+      </c>
+      <c r="W35">
+        <v>1.44</v>
+      </c>
+      <c r="X35">
+        <v>2.62</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+      <c r="Z35">
+        <v>1.36</v>
+      </c>
+      <c r="AA35">
+        <v>7.5</v>
+      </c>
+      <c r="AB35">
+        <v>1.07</v>
+      </c>
+      <c r="AC35">
+        <v>2.33</v>
+      </c>
+      <c r="AD35">
+        <v>3.15</v>
+      </c>
+      <c r="AE35">
+        <v>3.19</v>
+      </c>
+      <c r="AF35">
+        <v>1.06</v>
+      </c>
+      <c r="AG35">
+        <v>8</v>
+      </c>
+      <c r="AH35">
+        <v>1.33</v>
+      </c>
+      <c r="AI35">
+        <v>3.25</v>
+      </c>
+      <c r="AJ35">
+        <v>1.93</v>
+      </c>
+      <c r="AK35">
+        <v>1.78</v>
+      </c>
+      <c r="AL35">
+        <v>1.85</v>
+      </c>
+      <c r="AM35">
+        <v>1.85</v>
+      </c>
+      <c r="AN35">
+        <v>1.2</v>
+      </c>
+      <c r="AO35">
+        <v>1.25</v>
+      </c>
+      <c r="AP35">
+        <v>1.8</v>
+      </c>
+      <c r="AQ35">
+        <v>0.5</v>
+      </c>
+      <c r="AR35">
+        <v>3</v>
+      </c>
+      <c r="AS35">
+        <v>1.33</v>
+      </c>
+      <c r="AT35">
+        <v>1.5</v>
+      </c>
+      <c r="AU35">
+        <v>1.23</v>
+      </c>
+      <c r="AV35">
+        <v>1.62</v>
+      </c>
+      <c r="AW35">
+        <v>2.85</v>
+      </c>
+      <c r="AX35">
+        <v>1.43</v>
+      </c>
+      <c r="AY35">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ35">
+        <v>3.65</v>
+      </c>
+      <c r="BA35">
+        <v>1.4</v>
+      </c>
+      <c r="BB35">
+        <v>1.67</v>
+      </c>
+      <c r="BC35">
+        <v>2.1</v>
+      </c>
+      <c r="BD35">
+        <v>2.63</v>
+      </c>
+      <c r="BE35">
+        <v>3.6</v>
+      </c>
+      <c r="BF35">
+        <v>4</v>
+      </c>
+      <c r="BG35">
+        <v>3</v>
+      </c>
+      <c r="BH35">
+        <v>4</v>
+      </c>
+      <c r="BI35">
+        <v>3</v>
+      </c>
+      <c r="BJ35">
+        <v>8</v>
+      </c>
+      <c r="BK35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5188510</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44996.08333333334</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>112</v>
+      </c>
+      <c r="P36" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>8</v>
+      </c>
+      <c r="T36">
+        <v>3.6</v>
+      </c>
+      <c r="U36">
+        <v>2.05</v>
+      </c>
+      <c r="V36">
+        <v>2.8</v>
+      </c>
+      <c r="W36">
+        <v>1.44</v>
+      </c>
+      <c r="X36">
+        <v>2.62</v>
+      </c>
+      <c r="Y36">
+        <v>3</v>
+      </c>
+      <c r="Z36">
+        <v>1.36</v>
+      </c>
+      <c r="AA36">
+        <v>7.5</v>
+      </c>
+      <c r="AB36">
+        <v>1.07</v>
+      </c>
+      <c r="AC36">
+        <v>2.59</v>
+      </c>
+      <c r="AD36">
+        <v>3.24</v>
+      </c>
+      <c r="AE36">
+        <v>2.74</v>
+      </c>
+      <c r="AF36">
+        <v>1.06</v>
+      </c>
+      <c r="AG36">
+        <v>8</v>
+      </c>
+      <c r="AH36">
+        <v>1.3</v>
+      </c>
+      <c r="AI36">
+        <v>3.4</v>
+      </c>
+      <c r="AJ36">
+        <v>1.99</v>
+      </c>
+      <c r="AK36">
+        <v>1.81</v>
+      </c>
+      <c r="AL36">
+        <v>1.8</v>
+      </c>
+      <c r="AM36">
+        <v>1.91</v>
+      </c>
+      <c r="AN36">
+        <v>1.57</v>
+      </c>
+      <c r="AO36">
+        <v>1.25</v>
+      </c>
+      <c r="AP36">
+        <v>1.28</v>
+      </c>
+      <c r="AQ36">
+        <v>3</v>
+      </c>
+      <c r="AR36">
+        <v>1</v>
+      </c>
+      <c r="AS36">
+        <v>3</v>
+      </c>
+      <c r="AT36">
+        <v>0.5</v>
+      </c>
+      <c r="AU36">
+        <v>2.03</v>
+      </c>
+      <c r="AV36">
+        <v>1.16</v>
+      </c>
+      <c r="AW36">
+        <v>3.19</v>
+      </c>
+      <c r="AX36">
+        <v>2.38</v>
+      </c>
+      <c r="AY36">
+        <v>7.4</v>
+      </c>
+      <c r="AZ36">
+        <v>1.86</v>
+      </c>
+      <c r="BA36">
+        <v>1.3</v>
+      </c>
+      <c r="BB36">
+        <v>1.57</v>
+      </c>
+      <c r="BC36">
+        <v>2</v>
+      </c>
+      <c r="BD36">
+        <v>2.4</v>
+      </c>
+      <c r="BE36">
+        <v>3.7</v>
+      </c>
+      <c r="BF36">
+        <v>5</v>
+      </c>
+      <c r="BG36">
+        <v>7</v>
+      </c>
+      <c r="BH36">
+        <v>6</v>
+      </c>
+      <c r="BI36">
+        <v>10</v>
+      </c>
+      <c r="BJ36">
+        <v>11</v>
+      </c>
+      <c r="BK36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5188511</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44996.08333333334</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>113</v>
+      </c>
+      <c r="P37" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>7</v>
+      </c>
+      <c r="S37">
+        <v>11</v>
+      </c>
+      <c r="T37">
+        <v>3.1</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>3.6</v>
+      </c>
+      <c r="W37">
+        <v>1.44</v>
+      </c>
+      <c r="X37">
+        <v>2.62</v>
+      </c>
+      <c r="Y37">
+        <v>3.25</v>
+      </c>
+      <c r="Z37">
+        <v>1.33</v>
+      </c>
+      <c r="AA37">
+        <v>8</v>
+      </c>
+      <c r="AB37">
+        <v>1.06</v>
+      </c>
+      <c r="AC37">
+        <v>2.44</v>
+      </c>
+      <c r="AD37">
+        <v>3.12</v>
+      </c>
+      <c r="AE37">
+        <v>3.04</v>
+      </c>
+      <c r="AF37">
+        <v>1.08</v>
+      </c>
+      <c r="AG37">
+        <v>7</v>
+      </c>
+      <c r="AH37">
+        <v>1.4</v>
+      </c>
+      <c r="AI37">
+        <v>2.75</v>
+      </c>
+      <c r="AJ37">
+        <v>2.11</v>
+      </c>
+      <c r="AK37">
+        <v>1.65</v>
+      </c>
+      <c r="AL37">
+        <v>1.91</v>
+      </c>
+      <c r="AM37">
+        <v>1.8</v>
+      </c>
+      <c r="AN37">
+        <v>1.4</v>
+      </c>
+      <c r="AO37">
+        <v>1.35</v>
+      </c>
+      <c r="AP37">
+        <v>1.55</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>1</v>
+      </c>
+      <c r="AS37">
+        <v>1.33</v>
+      </c>
+      <c r="AT37">
+        <v>2</v>
+      </c>
+      <c r="AU37">
+        <v>1.19</v>
+      </c>
+      <c r="AV37">
+        <v>1.15</v>
+      </c>
+      <c r="AW37">
+        <v>2.34</v>
+      </c>
+      <c r="AX37">
+        <v>2.04</v>
+      </c>
+      <c r="AY37">
+        <v>7.4</v>
+      </c>
+      <c r="AZ37">
+        <v>2.14</v>
+      </c>
+      <c r="BA37">
+        <v>1.4</v>
+      </c>
+      <c r="BB37">
+        <v>1.67</v>
+      </c>
+      <c r="BC37">
+        <v>2.1</v>
+      </c>
+      <c r="BD37">
+        <v>2.63</v>
+      </c>
+      <c r="BE37">
+        <v>3.9</v>
+      </c>
+      <c r="BF37">
+        <v>7</v>
+      </c>
+      <c r="BG37">
+        <v>6</v>
+      </c>
+      <c r="BH37">
+        <v>9</v>
+      </c>
+      <c r="BI37">
+        <v>10</v>
+      </c>
+      <c r="BJ37">
+        <v>16</v>
+      </c>
+      <c r="BK37">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -271,12 +271,12 @@
     <t>Zweigen Kanazawa</t>
   </si>
   <si>
+    <t>Blaublitz Akita</t>
+  </si>
+  <si>
     <t>Montedio Yamagata</t>
   </si>
   <si>
-    <t>Blaublitz Akita</t>
-  </si>
-  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -352,12 +352,24 @@
     <t>['37', '71']</t>
   </si>
   <si>
-    <t>['90+5']</t>
+    <t>['90+4']</t>
   </si>
   <si>
     <t>['79']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['14', '64', '76']</t>
+  </si>
+  <si>
+    <t>['45+1', '64', '85']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
     <t>['9', '77']</t>
   </si>
   <si>
@@ -367,9 +379,6 @@
     <t>['26', '31', '53']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['50', '90+3']</t>
   </si>
   <si>
@@ -391,9 +400,6 @@
     <t>['16']</t>
   </si>
   <si>
-    <t>['90+4']</t>
-  </si>
-  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -410,6 +416,12 @@
   </si>
   <si>
     <t>['35', '58', '75']</t>
+  </si>
+  <si>
+    <t>['51', '77']</t>
+  </si>
+  <si>
+    <t>['20']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK37"/>
+  <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,7 +1003,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1015,7 +1027,7 @@
         <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1105,7 +1117,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1206,7 +1218,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1373,7 +1385,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1484,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>2.33</v>
@@ -1678,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1779,7 +1791,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2161,7 +2173,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2251,7 +2263,7 @@
         <v>0.5</v>
       </c>
       <c r="AT8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2630,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -2734,7 +2746,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2821,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3116,7 +3128,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3283,7 +3295,7 @@
         <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3307,7 +3319,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3397,7 +3409,7 @@
         <v>0.5</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3588,7 +3600,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3967,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -4047,7 +4059,7 @@
         <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4349,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -4543,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4644,7 +4656,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4922,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT22">
         <v>0.5</v>
@@ -5026,7 +5038,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5116,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5193,7 +5205,7 @@
         <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5217,7 +5229,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5307,7 +5319,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU24">
         <v>1.94</v>
@@ -5384,7 +5396,7 @@
         <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5408,7 +5420,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5599,7 +5611,7 @@
         <v>94</v>
       </c>
       <c r="P26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5686,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -5790,7 +5802,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -5981,7 +5993,7 @@
         <v>89</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6554,7 +6566,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6745,7 +6757,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7127,7 +7139,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7318,7 +7330,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7700,7 +7712,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -7842,6 +7854,1534 @@
       </c>
       <c r="BK37">
         <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5188518</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44997.08333333334</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>89</v>
+      </c>
+      <c r="P38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="R38">
+        <v>6</v>
+      </c>
+      <c r="S38">
+        <v>11</v>
+      </c>
+      <c r="T38">
+        <v>3.1</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>3.75</v>
+      </c>
+      <c r="W38">
+        <v>1.5</v>
+      </c>
+      <c r="X38">
+        <v>2.5</v>
+      </c>
+      <c r="Y38">
+        <v>3.4</v>
+      </c>
+      <c r="Z38">
+        <v>1.3</v>
+      </c>
+      <c r="AA38">
+        <v>10</v>
+      </c>
+      <c r="AB38">
+        <v>1.06</v>
+      </c>
+      <c r="AC38">
+        <v>2.15</v>
+      </c>
+      <c r="AD38">
+        <v>3.15</v>
+      </c>
+      <c r="AE38">
+        <v>3.42</v>
+      </c>
+      <c r="AF38">
+        <v>1.08</v>
+      </c>
+      <c r="AG38">
+        <v>6.5</v>
+      </c>
+      <c r="AH38">
+        <v>1.42</v>
+      </c>
+      <c r="AI38">
+        <v>2.62</v>
+      </c>
+      <c r="AJ38">
+        <v>2.25</v>
+      </c>
+      <c r="AK38">
+        <v>1.57</v>
+      </c>
+      <c r="AL38">
+        <v>1.91</v>
+      </c>
+      <c r="AM38">
+        <v>1.8</v>
+      </c>
+      <c r="AN38">
+        <v>1.36</v>
+      </c>
+      <c r="AO38">
+        <v>1.35</v>
+      </c>
+      <c r="AP38">
+        <v>1.6</v>
+      </c>
+      <c r="AQ38">
+        <v>0.5</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0.33</v>
+      </c>
+      <c r="AT38">
+        <v>1.5</v>
+      </c>
+      <c r="AU38">
+        <v>1.46</v>
+      </c>
+      <c r="AV38">
+        <v>1.48</v>
+      </c>
+      <c r="AW38">
+        <v>2.94</v>
+      </c>
+      <c r="AX38">
+        <v>1.74</v>
+      </c>
+      <c r="AY38">
+        <v>5.5</v>
+      </c>
+      <c r="AZ38">
+        <v>2.4</v>
+      </c>
+      <c r="BA38">
+        <v>1.33</v>
+      </c>
+      <c r="BB38">
+        <v>1.69</v>
+      </c>
+      <c r="BC38">
+        <v>2.08</v>
+      </c>
+      <c r="BD38">
+        <v>2.8</v>
+      </c>
+      <c r="BE38">
+        <v>3.9</v>
+      </c>
+      <c r="BF38">
+        <v>2</v>
+      </c>
+      <c r="BG38">
+        <v>3</v>
+      </c>
+      <c r="BH38">
+        <v>2</v>
+      </c>
+      <c r="BI38">
+        <v>4</v>
+      </c>
+      <c r="BJ38">
+        <v>4</v>
+      </c>
+      <c r="BK38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5188512</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44997.08333333334</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>89</v>
+      </c>
+      <c r="P39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>7</v>
+      </c>
+      <c r="S39">
+        <v>12</v>
+      </c>
+      <c r="T39">
+        <v>2.88</v>
+      </c>
+      <c r="U39">
+        <v>2.1</v>
+      </c>
+      <c r="V39">
+        <v>4</v>
+      </c>
+      <c r="W39">
+        <v>1.44</v>
+      </c>
+      <c r="X39">
+        <v>2.63</v>
+      </c>
+      <c r="Y39">
+        <v>3.25</v>
+      </c>
+      <c r="Z39">
+        <v>1.33</v>
+      </c>
+      <c r="AA39">
+        <v>9</v>
+      </c>
+      <c r="AB39">
+        <v>1.07</v>
+      </c>
+      <c r="AC39">
+        <v>2.14</v>
+      </c>
+      <c r="AD39">
+        <v>2.98</v>
+      </c>
+      <c r="AE39">
+        <v>3.05</v>
+      </c>
+      <c r="AF39">
+        <v>1.07</v>
+      </c>
+      <c r="AG39">
+        <v>7</v>
+      </c>
+      <c r="AH39">
+        <v>1.36</v>
+      </c>
+      <c r="AI39">
+        <v>2.9</v>
+      </c>
+      <c r="AJ39">
+        <v>2</v>
+      </c>
+      <c r="AK39">
+        <v>1.7</v>
+      </c>
+      <c r="AL39">
+        <v>1.83</v>
+      </c>
+      <c r="AM39">
+        <v>1.83</v>
+      </c>
+      <c r="AN39">
+        <v>1.35</v>
+      </c>
+      <c r="AO39">
+        <v>1.35</v>
+      </c>
+      <c r="AP39">
+        <v>1.62</v>
+      </c>
+      <c r="AQ39">
+        <v>3</v>
+      </c>
+      <c r="AR39">
+        <v>1</v>
+      </c>
+      <c r="AS39">
+        <v>1.5</v>
+      </c>
+      <c r="AT39">
+        <v>2</v>
+      </c>
+      <c r="AU39">
+        <v>1.18</v>
+      </c>
+      <c r="AV39">
+        <v>2.88</v>
+      </c>
+      <c r="AW39">
+        <v>4.06</v>
+      </c>
+      <c r="AX39">
+        <v>1.61</v>
+      </c>
+      <c r="AY39">
+        <v>7.7</v>
+      </c>
+      <c r="AZ39">
+        <v>2.92</v>
+      </c>
+      <c r="BA39">
+        <v>1.44</v>
+      </c>
+      <c r="BB39">
+        <v>1.73</v>
+      </c>
+      <c r="BC39">
+        <v>2.2</v>
+      </c>
+      <c r="BD39">
+        <v>3.1</v>
+      </c>
+      <c r="BE39">
+        <v>4</v>
+      </c>
+      <c r="BF39">
+        <v>2</v>
+      </c>
+      <c r="BG39">
+        <v>2</v>
+      </c>
+      <c r="BH39">
+        <v>9</v>
+      </c>
+      <c r="BI39">
+        <v>13</v>
+      </c>
+      <c r="BJ39">
+        <v>11</v>
+      </c>
+      <c r="BK39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5188513</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44997.08333333334</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>114</v>
+      </c>
+      <c r="P40" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>8</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>1.91</v>
+      </c>
+      <c r="V40">
+        <v>3.2</v>
+      </c>
+      <c r="W40">
+        <v>1.57</v>
+      </c>
+      <c r="X40">
+        <v>2.25</v>
+      </c>
+      <c r="Y40">
+        <v>3.75</v>
+      </c>
+      <c r="Z40">
+        <v>1.25</v>
+      </c>
+      <c r="AA40">
+        <v>13</v>
+      </c>
+      <c r="AB40">
+        <v>1.04</v>
+      </c>
+      <c r="AC40">
+        <v>2.71</v>
+      </c>
+      <c r="AD40">
+        <v>2.91</v>
+      </c>
+      <c r="AE40">
+        <v>2.4</v>
+      </c>
+      <c r="AF40">
+        <v>1.11</v>
+      </c>
+      <c r="AG40">
+        <v>5.5</v>
+      </c>
+      <c r="AH40">
+        <v>1.53</v>
+      </c>
+      <c r="AI40">
+        <v>2.35</v>
+      </c>
+      <c r="AJ40">
+        <v>2.5</v>
+      </c>
+      <c r="AK40">
+        <v>1.47</v>
+      </c>
+      <c r="AL40">
+        <v>2.2</v>
+      </c>
+      <c r="AM40">
+        <v>1.62</v>
+      </c>
+      <c r="AN40">
+        <v>1.52</v>
+      </c>
+      <c r="AO40">
+        <v>1.35</v>
+      </c>
+      <c r="AP40">
+        <v>1.3</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>3</v>
+      </c>
+      <c r="AS40">
+        <v>3</v>
+      </c>
+      <c r="AT40">
+        <v>1.5</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0.95</v>
+      </c>
+      <c r="AW40">
+        <v>0.95</v>
+      </c>
+      <c r="AX40">
+        <v>2.3</v>
+      </c>
+      <c r="AY40">
+        <v>7.6</v>
+      </c>
+      <c r="AZ40">
+        <v>1.9</v>
+      </c>
+      <c r="BA40">
+        <v>1.26</v>
+      </c>
+      <c r="BB40">
+        <v>1.55</v>
+      </c>
+      <c r="BC40">
+        <v>1.95</v>
+      </c>
+      <c r="BD40">
+        <v>2.3</v>
+      </c>
+      <c r="BE40">
+        <v>3.35</v>
+      </c>
+      <c r="BF40">
+        <v>2</v>
+      </c>
+      <c r="BG40">
+        <v>3</v>
+      </c>
+      <c r="BH40">
+        <v>4</v>
+      </c>
+      <c r="BI40">
+        <v>7</v>
+      </c>
+      <c r="BJ40">
+        <v>6</v>
+      </c>
+      <c r="BK40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5188514</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44997.08333333334</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>3.75</v>
+      </c>
+      <c r="U41">
+        <v>1.91</v>
+      </c>
+      <c r="V41">
+        <v>3.5</v>
+      </c>
+      <c r="W41">
+        <v>1.57</v>
+      </c>
+      <c r="X41">
+        <v>2.25</v>
+      </c>
+      <c r="Y41">
+        <v>3.75</v>
+      </c>
+      <c r="Z41">
+        <v>1.25</v>
+      </c>
+      <c r="AA41">
+        <v>13</v>
+      </c>
+      <c r="AB41">
+        <v>1.04</v>
+      </c>
+      <c r="AC41">
+        <v>2.71</v>
+      </c>
+      <c r="AD41">
+        <v>2.91</v>
+      </c>
+      <c r="AE41">
+        <v>2.4</v>
+      </c>
+      <c r="AF41">
+        <v>1.11</v>
+      </c>
+      <c r="AG41">
+        <v>5.5</v>
+      </c>
+      <c r="AH41">
+        <v>1.53</v>
+      </c>
+      <c r="AI41">
+        <v>2.35</v>
+      </c>
+      <c r="AJ41">
+        <v>2.5</v>
+      </c>
+      <c r="AK41">
+        <v>1.47</v>
+      </c>
+      <c r="AL41">
+        <v>2.2</v>
+      </c>
+      <c r="AM41">
+        <v>1.62</v>
+      </c>
+      <c r="AN41">
+        <v>1.5</v>
+      </c>
+      <c r="AO41">
+        <v>1.4</v>
+      </c>
+      <c r="AP41">
+        <v>1.4</v>
+      </c>
+      <c r="AQ41">
+        <v>1</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>1</v>
+      </c>
+      <c r="AT41">
+        <v>0.5</v>
+      </c>
+      <c r="AU41">
+        <v>1.56</v>
+      </c>
+      <c r="AV41">
+        <v>1.51</v>
+      </c>
+      <c r="AW41">
+        <v>3.07</v>
+      </c>
+      <c r="AX41">
+        <v>2.07</v>
+      </c>
+      <c r="AY41">
+        <v>7.2</v>
+      </c>
+      <c r="AZ41">
+        <v>2.12</v>
+      </c>
+      <c r="BA41">
+        <v>1.4</v>
+      </c>
+      <c r="BB41">
+        <v>1.67</v>
+      </c>
+      <c r="BC41">
+        <v>2.1</v>
+      </c>
+      <c r="BD41">
+        <v>2.63</v>
+      </c>
+      <c r="BE41">
+        <v>4.1</v>
+      </c>
+      <c r="BF41">
+        <v>3</v>
+      </c>
+      <c r="BG41">
+        <v>3</v>
+      </c>
+      <c r="BH41">
+        <v>7</v>
+      </c>
+      <c r="BI41">
+        <v>5</v>
+      </c>
+      <c r="BJ41">
+        <v>10</v>
+      </c>
+      <c r="BK41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5188515</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44997.08333333334</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>6</v>
+      </c>
+      <c r="T42">
+        <v>2.6</v>
+      </c>
+      <c r="U42">
+        <v>2.1</v>
+      </c>
+      <c r="V42">
+        <v>4.75</v>
+      </c>
+      <c r="W42">
+        <v>1.44</v>
+      </c>
+      <c r="X42">
+        <v>2.63</v>
+      </c>
+      <c r="Y42">
+        <v>3.25</v>
+      </c>
+      <c r="Z42">
+        <v>1.33</v>
+      </c>
+      <c r="AA42">
+        <v>10</v>
+      </c>
+      <c r="AB42">
+        <v>1.06</v>
+      </c>
+      <c r="AC42">
+        <v>1.91</v>
+      </c>
+      <c r="AD42">
+        <v>3.33</v>
+      </c>
+      <c r="AE42">
+        <v>3.92</v>
+      </c>
+      <c r="AF42">
+        <v>1.07</v>
+      </c>
+      <c r="AG42">
+        <v>7</v>
+      </c>
+      <c r="AH42">
+        <v>1.36</v>
+      </c>
+      <c r="AI42">
+        <v>2.9</v>
+      </c>
+      <c r="AJ42">
+        <v>2.18</v>
+      </c>
+      <c r="AK42">
+        <v>1.64</v>
+      </c>
+      <c r="AL42">
+        <v>2</v>
+      </c>
+      <c r="AM42">
+        <v>1.73</v>
+      </c>
+      <c r="AN42">
+        <v>1.25</v>
+      </c>
+      <c r="AO42">
+        <v>1.33</v>
+      </c>
+      <c r="AP42">
+        <v>1.83</v>
+      </c>
+      <c r="AQ42">
+        <v>2</v>
+      </c>
+      <c r="AR42">
+        <v>1</v>
+      </c>
+      <c r="AS42">
+        <v>2.33</v>
+      </c>
+      <c r="AT42">
+        <v>0.5</v>
+      </c>
+      <c r="AU42">
+        <v>1.7</v>
+      </c>
+      <c r="AV42">
+        <v>1.51</v>
+      </c>
+      <c r="AW42">
+        <v>3.21</v>
+      </c>
+      <c r="AX42">
+        <v>1.5</v>
+      </c>
+      <c r="AY42">
+        <v>6</v>
+      </c>
+      <c r="AZ42">
+        <v>3</v>
+      </c>
+      <c r="BA42">
+        <v>1.28</v>
+      </c>
+      <c r="BB42">
+        <v>1.6</v>
+      </c>
+      <c r="BC42">
+        <v>1.96</v>
+      </c>
+      <c r="BD42">
+        <v>2.43</v>
+      </c>
+      <c r="BE42">
+        <v>3.55</v>
+      </c>
+      <c r="BF42">
+        <v>6</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>5</v>
+      </c>
+      <c r="BI42">
+        <v>7</v>
+      </c>
+      <c r="BJ42">
+        <v>11</v>
+      </c>
+      <c r="BK42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5188516</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44997.08333333334</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>89</v>
+      </c>
+      <c r="P43" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q43">
+        <v>6</v>
+      </c>
+      <c r="R43">
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <v>9</v>
+      </c>
+      <c r="T43">
+        <v>2.75</v>
+      </c>
+      <c r="U43">
+        <v>2.1</v>
+      </c>
+      <c r="V43">
+        <v>4</v>
+      </c>
+      <c r="W43">
+        <v>1.44</v>
+      </c>
+      <c r="X43">
+        <v>2.63</v>
+      </c>
+      <c r="Y43">
+        <v>3.25</v>
+      </c>
+      <c r="Z43">
+        <v>1.33</v>
+      </c>
+      <c r="AA43">
+        <v>9</v>
+      </c>
+      <c r="AB43">
+        <v>1.07</v>
+      </c>
+      <c r="AC43">
+        <v>2.62</v>
+      </c>
+      <c r="AD43">
+        <v>2.9</v>
+      </c>
+      <c r="AE43">
+        <v>2.48</v>
+      </c>
+      <c r="AF43">
+        <v>1.08</v>
+      </c>
+      <c r="AG43">
+        <v>6.5</v>
+      </c>
+      <c r="AH43">
+        <v>1.42</v>
+      </c>
+      <c r="AI43">
+        <v>2.62</v>
+      </c>
+      <c r="AJ43">
+        <v>2.02</v>
+      </c>
+      <c r="AK43">
+        <v>1.75</v>
+      </c>
+      <c r="AL43">
+        <v>1.83</v>
+      </c>
+      <c r="AM43">
+        <v>1.83</v>
+      </c>
+      <c r="AN43">
+        <v>1.35</v>
+      </c>
+      <c r="AO43">
+        <v>1.35</v>
+      </c>
+      <c r="AP43">
+        <v>1.62</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>3</v>
+      </c>
+      <c r="AS43">
+        <v>1</v>
+      </c>
+      <c r="AT43">
+        <v>2</v>
+      </c>
+      <c r="AU43">
+        <v>1.76</v>
+      </c>
+      <c r="AV43">
+        <v>1.36</v>
+      </c>
+      <c r="AW43">
+        <v>3.12</v>
+      </c>
+      <c r="AX43">
+        <v>1.39</v>
+      </c>
+      <c r="AY43">
+        <v>8.4</v>
+      </c>
+      <c r="AZ43">
+        <v>3.92</v>
+      </c>
+      <c r="BA43">
+        <v>1.4</v>
+      </c>
+      <c r="BB43">
+        <v>1.67</v>
+      </c>
+      <c r="BC43">
+        <v>2.1</v>
+      </c>
+      <c r="BD43">
+        <v>2.63</v>
+      </c>
+      <c r="BE43">
+        <v>4</v>
+      </c>
+      <c r="BF43">
+        <v>7</v>
+      </c>
+      <c r="BG43">
+        <v>2</v>
+      </c>
+      <c r="BH43">
+        <v>9</v>
+      </c>
+      <c r="BI43">
+        <v>5</v>
+      </c>
+      <c r="BJ43">
+        <v>16</v>
+      </c>
+      <c r="BK43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5188517</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44997.08333333334</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q44">
+        <v>7</v>
+      </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
+      <c r="S44">
+        <v>12</v>
+      </c>
+      <c r="T44">
+        <v>2.4</v>
+      </c>
+      <c r="U44">
+        <v>2.1</v>
+      </c>
+      <c r="V44">
+        <v>5</v>
+      </c>
+      <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>2.63</v>
+      </c>
+      <c r="Y44">
+        <v>3</v>
+      </c>
+      <c r="Z44">
+        <v>1.36</v>
+      </c>
+      <c r="AA44">
+        <v>9</v>
+      </c>
+      <c r="AB44">
+        <v>1.07</v>
+      </c>
+      <c r="AC44">
+        <v>2.07</v>
+      </c>
+      <c r="AD44">
+        <v>3.02</v>
+      </c>
+      <c r="AE44">
+        <v>3.16</v>
+      </c>
+      <c r="AF44">
+        <v>1.05</v>
+      </c>
+      <c r="AG44">
+        <v>8</v>
+      </c>
+      <c r="AH44">
+        <v>1.3</v>
+      </c>
+      <c r="AI44">
+        <v>3.2</v>
+      </c>
+      <c r="AJ44">
+        <v>1.97</v>
+      </c>
+      <c r="AK44">
+        <v>1.79</v>
+      </c>
+      <c r="AL44">
+        <v>2</v>
+      </c>
+      <c r="AM44">
+        <v>1.73</v>
+      </c>
+      <c r="AN44">
+        <v>1.2</v>
+      </c>
+      <c r="AO44">
+        <v>1.29</v>
+      </c>
+      <c r="AP44">
+        <v>2.05</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>2</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>1.49</v>
+      </c>
+      <c r="AV44">
+        <v>0.86</v>
+      </c>
+      <c r="AW44">
+        <v>2.35</v>
+      </c>
+      <c r="AX44">
+        <v>1.43</v>
+      </c>
+      <c r="AY44">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ44">
+        <v>3.65</v>
+      </c>
+      <c r="BA44">
+        <v>1.3</v>
+      </c>
+      <c r="BB44">
+        <v>1.62</v>
+      </c>
+      <c r="BC44">
+        <v>2</v>
+      </c>
+      <c r="BD44">
+        <v>2.5</v>
+      </c>
+      <c r="BE44">
+        <v>3.75</v>
+      </c>
+      <c r="BF44">
+        <v>8</v>
+      </c>
+      <c r="BG44">
+        <v>2</v>
+      </c>
+      <c r="BH44">
+        <v>2</v>
+      </c>
+      <c r="BI44">
+        <v>2</v>
+      </c>
+      <c r="BJ44">
+        <v>10</v>
+      </c>
+      <c r="BK44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5188519</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>44997.20833333334</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>117</v>
+      </c>
+      <c r="P45" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>12</v>
+      </c>
+      <c r="S45">
+        <v>14</v>
+      </c>
+      <c r="T45">
+        <v>4.75</v>
+      </c>
+      <c r="U45">
+        <v>2.05</v>
+      </c>
+      <c r="V45">
+        <v>2.63</v>
+      </c>
+      <c r="W45">
+        <v>1.44</v>
+      </c>
+      <c r="X45">
+        <v>2.63</v>
+      </c>
+      <c r="Y45">
+        <v>3.25</v>
+      </c>
+      <c r="Z45">
+        <v>1.33</v>
+      </c>
+      <c r="AA45">
+        <v>10</v>
+      </c>
+      <c r="AB45">
+        <v>1.06</v>
+      </c>
+      <c r="AC45">
+        <v>3.8</v>
+      </c>
+      <c r="AD45">
+        <v>3.35</v>
+      </c>
+      <c r="AE45">
+        <v>1.76</v>
+      </c>
+      <c r="AF45">
+        <v>1.07</v>
+      </c>
+      <c r="AG45">
+        <v>7</v>
+      </c>
+      <c r="AH45">
+        <v>1.38</v>
+      </c>
+      <c r="AI45">
+        <v>2.8</v>
+      </c>
+      <c r="AJ45">
+        <v>2.04</v>
+      </c>
+      <c r="AK45">
+        <v>1.69</v>
+      </c>
+      <c r="AL45">
+        <v>2</v>
+      </c>
+      <c r="AM45">
+        <v>1.73</v>
+      </c>
+      <c r="AN45">
+        <v>1.88</v>
+      </c>
+      <c r="AO45">
+        <v>1.3</v>
+      </c>
+      <c r="AP45">
+        <v>1.25</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>2</v>
+      </c>
+      <c r="AS45">
+        <v>2</v>
+      </c>
+      <c r="AT45">
+        <v>1.5</v>
+      </c>
+      <c r="AU45">
+        <v>0.84</v>
+      </c>
+      <c r="AV45">
+        <v>1.37</v>
+      </c>
+      <c r="AW45">
+        <v>2.21</v>
+      </c>
+      <c r="AX45">
+        <v>3.25</v>
+      </c>
+      <c r="AY45">
+        <v>8.4</v>
+      </c>
+      <c r="AZ45">
+        <v>1.5</v>
+      </c>
+      <c r="BA45">
+        <v>1.21</v>
+      </c>
+      <c r="BB45">
+        <v>1.43</v>
+      </c>
+      <c r="BC45">
+        <v>1.7</v>
+      </c>
+      <c r="BD45">
+        <v>2.1</v>
+      </c>
+      <c r="BE45">
+        <v>2.63</v>
+      </c>
+      <c r="BF45">
+        <v>4</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>5</v>
+      </c>
+      <c r="BI45">
+        <v>6</v>
+      </c>
+      <c r="BJ45">
+        <v>9</v>
+      </c>
+      <c r="BK45">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK45"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -9684,6 +9684,209 @@
       </c>
       <c r="BK45" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5188520</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45003.08333333334</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Jubilo Iwata</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['2', '66']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['42', '87']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>8</v>
+      </c>
+      <c r="S46" t="n">
+        <v>11</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,24 @@
     <t>['13', '72']</t>
   </si>
   <si>
+    <t>['65', '83', '90+3']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['3', '46', '52']</t>
+  </si>
+  <si>
+    <t>['41', '90+5']</t>
+  </si>
+  <si>
+    <t>['16', '73', '82']</t>
+  </si>
+  <si>
+    <t>['32', '77']</t>
+  </si>
+  <si>
     <t>['9', '77']</t>
   </si>
   <si>
@@ -470,6 +488,24 @@
   </si>
   <si>
     <t>['19', '51']</t>
+  </si>
+  <si>
+    <t>['36', '74']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['9', '18', '23']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['7', '32', '86']</t>
+  </si>
+  <si>
+    <t>['39', '48', '49', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -831,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK56"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1075,7 +1111,7 @@
         <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1165,7 +1201,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1266,7 +1302,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1353,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1547,7 +1583,7 @@
         <v>1.33</v>
       </c>
       <c r="AT4">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1839,7 +1875,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1929,7 +1965,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2117,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2308,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2499,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2794,7 +2830,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2881,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT11">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3075,7 +3111,7 @@
         <v>1.67</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3176,7 +3212,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3367,7 +3403,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3454,10 +3490,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT14">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3839,7 +3875,7 @@
         <v>3</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4221,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="AT18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4409,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -4704,7 +4740,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4791,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT21">
         <v>0.5</v>
@@ -5086,7 +5122,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5173,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT23">
         <v>2</v>
@@ -5277,7 +5313,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5367,7 +5403,7 @@
         <v>1.33</v>
       </c>
       <c r="AT24">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU24">
         <v>1.94</v>
@@ -5468,7 +5504,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5558,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AT25">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU25">
         <v>2.22</v>
@@ -5746,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT26">
         <v>1.67</v>
@@ -5937,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
         <v>1</v>
@@ -6041,7 +6077,7 @@
         <v>89</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6128,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT28">
         <v>1.5</v>
@@ -6614,7 +6650,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6805,7 +6841,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -6892,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT32">
         <v>0.5</v>
@@ -7083,10 +7119,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT33">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU33">
         <v>1.69</v>
@@ -7187,7 +7223,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7274,10 +7310,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU34">
         <v>1.19</v>
@@ -7378,7 +7414,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7468,7 +7504,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU35">
         <v>1.23</v>
@@ -7760,7 +7796,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -7847,10 +7883,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
+        <v>1</v>
+      </c>
+      <c r="AT37">
         <v>1.33</v>
-      </c>
-      <c r="AT37">
-        <v>2</v>
       </c>
       <c r="AU37">
         <v>1.19</v>
@@ -7951,7 +7987,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8038,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT38">
         <v>2</v>
@@ -8142,7 +8178,7 @@
         <v>89</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8229,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>2</v>
@@ -8996,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU43">
         <v>1.76</v>
@@ -9187,7 +9223,7 @@
         <v>1.33</v>
       </c>
       <c r="AT44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU44">
         <v>1.49</v>
@@ -9378,7 +9414,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU45">
         <v>0.84</v>
@@ -9479,7 +9515,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9670,7 +9706,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -9861,7 +9897,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10139,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT49">
         <v>0.5</v>
@@ -10434,7 +10470,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10625,7 +10661,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -10816,7 +10852,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11007,7 +11043,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11097,7 +11133,7 @@
         <v>1.33</v>
       </c>
       <c r="AT54">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -11198,7 +11234,7 @@
         <v>89</v>
       </c>
       <c r="P55" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11531,6 +11567,1725 @@
       </c>
       <c r="BK56">
         <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5188535</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45010.08333333334</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>5</v>
+      </c>
+      <c r="O57" t="s">
+        <v>126</v>
+      </c>
+      <c r="P57" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q57">
+        <v>4</v>
+      </c>
+      <c r="R57">
+        <v>5</v>
+      </c>
+      <c r="S57">
+        <v>9</v>
+      </c>
+      <c r="T57">
+        <v>3.4</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>3.25</v>
+      </c>
+      <c r="W57">
+        <v>1.43</v>
+      </c>
+      <c r="X57">
+        <v>2.71</v>
+      </c>
+      <c r="Y57">
+        <v>3</v>
+      </c>
+      <c r="Z57">
+        <v>1.36</v>
+      </c>
+      <c r="AA57">
+        <v>7.6</v>
+      </c>
+      <c r="AB57">
+        <v>1.05</v>
+      </c>
+      <c r="AC57">
+        <v>2.63</v>
+      </c>
+      <c r="AD57">
+        <v>3.13</v>
+      </c>
+      <c r="AE57">
+        <v>2.7</v>
+      </c>
+      <c r="AF57">
+        <v>1.05</v>
+      </c>
+      <c r="AG57">
+        <v>8</v>
+      </c>
+      <c r="AH57">
+        <v>1.3</v>
+      </c>
+      <c r="AI57">
+        <v>3.2</v>
+      </c>
+      <c r="AJ57">
+        <v>2.1</v>
+      </c>
+      <c r="AK57">
+        <v>1.7</v>
+      </c>
+      <c r="AL57">
+        <v>1.73</v>
+      </c>
+      <c r="AM57">
+        <v>2</v>
+      </c>
+      <c r="AN57">
+        <v>1.5</v>
+      </c>
+      <c r="AO57">
+        <v>1.35</v>
+      </c>
+      <c r="AP57">
+        <v>1.44</v>
+      </c>
+      <c r="AQ57">
+        <v>0.5</v>
+      </c>
+      <c r="AR57">
+        <v>1.5</v>
+      </c>
+      <c r="AS57">
+        <v>1.33</v>
+      </c>
+      <c r="AT57">
+        <v>1.2</v>
+      </c>
+      <c r="AU57">
+        <v>1.08</v>
+      </c>
+      <c r="AV57">
+        <v>1.34</v>
+      </c>
+      <c r="AW57">
+        <v>2.42</v>
+      </c>
+      <c r="AX57">
+        <v>2.28</v>
+      </c>
+      <c r="AY57">
+        <v>7.6</v>
+      </c>
+      <c r="AZ57">
+        <v>1.91</v>
+      </c>
+      <c r="BA57">
+        <v>1.21</v>
+      </c>
+      <c r="BB57">
+        <v>1.41</v>
+      </c>
+      <c r="BC57">
+        <v>1.74</v>
+      </c>
+      <c r="BD57">
+        <v>2</v>
+      </c>
+      <c r="BE57">
+        <v>2.4</v>
+      </c>
+      <c r="BF57">
+        <v>7</v>
+      </c>
+      <c r="BG57">
+        <v>5</v>
+      </c>
+      <c r="BH57">
+        <v>7</v>
+      </c>
+      <c r="BI57">
+        <v>2</v>
+      </c>
+      <c r="BJ57">
+        <v>14</v>
+      </c>
+      <c r="BK57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5188534</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45010.08333333334</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P58" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q58">
+        <v>4</v>
+      </c>
+      <c r="R58">
+        <v>5</v>
+      </c>
+      <c r="S58">
+        <v>9</v>
+      </c>
+      <c r="T58">
+        <v>3.1</v>
+      </c>
+      <c r="U58">
+        <v>1.8</v>
+      </c>
+      <c r="V58">
+        <v>4.5</v>
+      </c>
+      <c r="W58">
+        <v>1.6</v>
+      </c>
+      <c r="X58">
+        <v>2.25</v>
+      </c>
+      <c r="Y58">
+        <v>3.6</v>
+      </c>
+      <c r="Z58">
+        <v>1.25</v>
+      </c>
+      <c r="AA58">
+        <v>9.9</v>
+      </c>
+      <c r="AB58">
+        <v>1.02</v>
+      </c>
+      <c r="AC58">
+        <v>2.3</v>
+      </c>
+      <c r="AD58">
+        <v>2.9</v>
+      </c>
+      <c r="AE58">
+        <v>3.4</v>
+      </c>
+      <c r="AF58">
+        <v>1.09</v>
+      </c>
+      <c r="AG58">
+        <v>5.8</v>
+      </c>
+      <c r="AH58">
+        <v>1.57</v>
+      </c>
+      <c r="AI58">
+        <v>2.38</v>
+      </c>
+      <c r="AJ58">
+        <v>2.88</v>
+      </c>
+      <c r="AK58">
+        <v>1.36</v>
+      </c>
+      <c r="AL58">
+        <v>2.1</v>
+      </c>
+      <c r="AM58">
+        <v>1.6</v>
+      </c>
+      <c r="AN58">
+        <v>1.33</v>
+      </c>
+      <c r="AO58">
+        <v>1.38</v>
+      </c>
+      <c r="AP58">
+        <v>1.62</v>
+      </c>
+      <c r="AQ58">
+        <v>0.33</v>
+      </c>
+      <c r="AR58">
+        <v>2.33</v>
+      </c>
+      <c r="AS58">
+        <v>0.5</v>
+      </c>
+      <c r="AT58">
+        <v>2</v>
+      </c>
+      <c r="AU58">
+        <v>1.34</v>
+      </c>
+      <c r="AV58">
+        <v>1.63</v>
+      </c>
+      <c r="AW58">
+        <v>2.97</v>
+      </c>
+      <c r="AX58">
+        <v>1.53</v>
+      </c>
+      <c r="AY58">
+        <v>8</v>
+      </c>
+      <c r="AZ58">
+        <v>3.16</v>
+      </c>
+      <c r="BA58">
+        <v>1.3</v>
+      </c>
+      <c r="BB58">
+        <v>1.56</v>
+      </c>
+      <c r="BC58">
+        <v>2</v>
+      </c>
+      <c r="BD58">
+        <v>2.62</v>
+      </c>
+      <c r="BE58">
+        <v>3.7</v>
+      </c>
+      <c r="BF58">
+        <v>3</v>
+      </c>
+      <c r="BG58">
+        <v>2</v>
+      </c>
+      <c r="BH58">
+        <v>4</v>
+      </c>
+      <c r="BI58">
+        <v>6</v>
+      </c>
+      <c r="BJ58">
+        <v>7</v>
+      </c>
+      <c r="BK58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5188533</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45010.08333333334</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>127</v>
+      </c>
+      <c r="P59" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q59">
+        <v>6</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>8</v>
+      </c>
+      <c r="T59">
+        <v>3.4</v>
+      </c>
+      <c r="U59">
+        <v>1.87</v>
+      </c>
+      <c r="V59">
+        <v>3.4</v>
+      </c>
+      <c r="W59">
+        <v>1.57</v>
+      </c>
+      <c r="X59">
+        <v>2.25</v>
+      </c>
+      <c r="Y59">
+        <v>3.6</v>
+      </c>
+      <c r="Z59">
+        <v>1.25</v>
+      </c>
+      <c r="AA59">
+        <v>8</v>
+      </c>
+      <c r="AB59">
+        <v>1.05</v>
+      </c>
+      <c r="AC59">
+        <v>2.63</v>
+      </c>
+      <c r="AD59">
+        <v>3</v>
+      </c>
+      <c r="AE59">
+        <v>2.8</v>
+      </c>
+      <c r="AF59">
+        <v>1.09</v>
+      </c>
+      <c r="AG59">
+        <v>6</v>
+      </c>
+      <c r="AH59">
+        <v>1.5</v>
+      </c>
+      <c r="AI59">
+        <v>2.47</v>
+      </c>
+      <c r="AJ59">
+        <v>2.45</v>
+      </c>
+      <c r="AK59">
+        <v>1.53</v>
+      </c>
+      <c r="AL59">
+        <v>2.05</v>
+      </c>
+      <c r="AM59">
+        <v>1.72</v>
+      </c>
+      <c r="AN59">
+        <v>1.36</v>
+      </c>
+      <c r="AO59">
+        <v>1.3</v>
+      </c>
+      <c r="AP59">
+        <v>1.38</v>
+      </c>
+      <c r="AQ59">
+        <v>0.5</v>
+      </c>
+      <c r="AR59">
+        <v>2</v>
+      </c>
+      <c r="AS59">
+        <v>0.67</v>
+      </c>
+      <c r="AT59">
+        <v>1.67</v>
+      </c>
+      <c r="AU59">
+        <v>2.11</v>
+      </c>
+      <c r="AV59">
+        <v>1.43</v>
+      </c>
+      <c r="AW59">
+        <v>3.54</v>
+      </c>
+      <c r="AX59">
+        <v>1.92</v>
+      </c>
+      <c r="AY59">
+        <v>7.4</v>
+      </c>
+      <c r="AZ59">
+        <v>2.29</v>
+      </c>
+      <c r="BA59">
+        <v>1.37</v>
+      </c>
+      <c r="BB59">
+        <v>1.88</v>
+      </c>
+      <c r="BC59">
+        <v>2.17</v>
+      </c>
+      <c r="BD59">
+        <v>3.05</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>7</v>
+      </c>
+      <c r="BG59">
+        <v>5</v>
+      </c>
+      <c r="BH59">
+        <v>9</v>
+      </c>
+      <c r="BI59">
+        <v>3</v>
+      </c>
+      <c r="BJ59">
+        <v>16</v>
+      </c>
+      <c r="BK59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5188532</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45010.08333333334</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s">
+        <v>82</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>128</v>
+      </c>
+      <c r="P60" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
+      <c r="R60">
+        <v>5</v>
+      </c>
+      <c r="S60">
+        <v>11</v>
+      </c>
+      <c r="T60">
+        <v>3.8</v>
+      </c>
+      <c r="U60">
+        <v>2.05</v>
+      </c>
+      <c r="V60">
+        <v>2.88</v>
+      </c>
+      <c r="W60">
+        <v>1.48</v>
+      </c>
+      <c r="X60">
+        <v>2.5</v>
+      </c>
+      <c r="Y60">
+        <v>3</v>
+      </c>
+      <c r="Z60">
+        <v>1.33</v>
+      </c>
+      <c r="AA60">
+        <v>7</v>
+      </c>
+      <c r="AB60">
+        <v>1.07</v>
+      </c>
+      <c r="AC60">
+        <v>3.25</v>
+      </c>
+      <c r="AD60">
+        <v>3.2</v>
+      </c>
+      <c r="AE60">
+        <v>2.25</v>
+      </c>
+      <c r="AF60">
+        <v>1.06</v>
+      </c>
+      <c r="AG60">
+        <v>7.5</v>
+      </c>
+      <c r="AH60">
+        <v>1.33</v>
+      </c>
+      <c r="AI60">
+        <v>3</v>
+      </c>
+      <c r="AJ60">
+        <v>2.15</v>
+      </c>
+      <c r="AK60">
+        <v>1.67</v>
+      </c>
+      <c r="AL60">
+        <v>1.8</v>
+      </c>
+      <c r="AM60">
+        <v>1.91</v>
+      </c>
+      <c r="AN60">
+        <v>1.7</v>
+      </c>
+      <c r="AO60">
+        <v>1.35</v>
+      </c>
+      <c r="AP60">
+        <v>1.3</v>
+      </c>
+      <c r="AQ60">
+        <v>3</v>
+      </c>
+      <c r="AR60">
+        <v>2</v>
+      </c>
+      <c r="AS60">
+        <v>3</v>
+      </c>
+      <c r="AT60">
+        <v>1.33</v>
+      </c>
+      <c r="AU60">
+        <v>1.71</v>
+      </c>
+      <c r="AV60">
+        <v>1.18</v>
+      </c>
+      <c r="AW60">
+        <v>2.89</v>
+      </c>
+      <c r="AX60">
+        <v>2.39</v>
+      </c>
+      <c r="AY60">
+        <v>7.3</v>
+      </c>
+      <c r="AZ60">
+        <v>1.86</v>
+      </c>
+      <c r="BA60">
+        <v>1.41</v>
+      </c>
+      <c r="BB60">
+        <v>1.75</v>
+      </c>
+      <c r="BC60">
+        <v>2.25</v>
+      </c>
+      <c r="BD60">
+        <v>3.15</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>7</v>
+      </c>
+      <c r="BG60">
+        <v>6</v>
+      </c>
+      <c r="BH60">
+        <v>2</v>
+      </c>
+      <c r="BI60">
+        <v>8</v>
+      </c>
+      <c r="BJ60">
+        <v>9</v>
+      </c>
+      <c r="BK60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5188531</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45010.08333333334</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61" t="s">
+        <v>129</v>
+      </c>
+      <c r="P61" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q61">
+        <v>4</v>
+      </c>
+      <c r="R61">
+        <v>6</v>
+      </c>
+      <c r="S61">
+        <v>10</v>
+      </c>
+      <c r="T61">
+        <v>2.4</v>
+      </c>
+      <c r="U61">
+        <v>2.1</v>
+      </c>
+      <c r="V61">
+        <v>4.75</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>2.6</v>
+      </c>
+      <c r="Y61">
+        <v>3</v>
+      </c>
+      <c r="Z61">
+        <v>1.33</v>
+      </c>
+      <c r="AA61">
+        <v>7</v>
+      </c>
+      <c r="AB61">
+        <v>1.07</v>
+      </c>
+      <c r="AC61">
+        <v>1.85</v>
+      </c>
+      <c r="AD61">
+        <v>3.4</v>
+      </c>
+      <c r="AE61">
+        <v>4.2</v>
+      </c>
+      <c r="AF61">
+        <v>1.05</v>
+      </c>
+      <c r="AG61">
+        <v>8</v>
+      </c>
+      <c r="AH61">
+        <v>1.5</v>
+      </c>
+      <c r="AI61">
+        <v>2.45</v>
+      </c>
+      <c r="AJ61">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>1.8</v>
+      </c>
+      <c r="AL61">
+        <v>1.85</v>
+      </c>
+      <c r="AM61">
+        <v>1.85</v>
+      </c>
+      <c r="AN61">
+        <v>1.22</v>
+      </c>
+      <c r="AO61">
+        <v>1.3</v>
+      </c>
+      <c r="AP61">
+        <v>1.95</v>
+      </c>
+      <c r="AQ61">
+        <v>1.5</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <v>1</v>
+      </c>
+      <c r="AT61">
+        <v>0.75</v>
+      </c>
+      <c r="AU61">
+        <v>1.22</v>
+      </c>
+      <c r="AV61">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW61">
+        <v>2.03</v>
+      </c>
+      <c r="AX61">
+        <v>1.48</v>
+      </c>
+      <c r="AY61">
+        <v>8.5</v>
+      </c>
+      <c r="AZ61">
+        <v>3.34</v>
+      </c>
+      <c r="BA61">
+        <v>1.4</v>
+      </c>
+      <c r="BB61">
+        <v>1.61</v>
+      </c>
+      <c r="BC61">
+        <v>2.05</v>
+      </c>
+      <c r="BD61">
+        <v>2.69</v>
+      </c>
+      <c r="BE61">
+        <v>0</v>
+      </c>
+      <c r="BF61">
+        <v>7</v>
+      </c>
+      <c r="BG61">
+        <v>5</v>
+      </c>
+      <c r="BH61">
+        <v>8</v>
+      </c>
+      <c r="BI61">
+        <v>4</v>
+      </c>
+      <c r="BJ61">
+        <v>15</v>
+      </c>
+      <c r="BK61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5188536</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45010.125</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62" t="s">
+        <v>130</v>
+      </c>
+      <c r="P62" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>5</v>
+      </c>
+      <c r="S62">
+        <v>8</v>
+      </c>
+      <c r="T62">
+        <v>2.7</v>
+      </c>
+      <c r="U62">
+        <v>2.05</v>
+      </c>
+      <c r="V62">
+        <v>3.75</v>
+      </c>
+      <c r="W62">
+        <v>1.43</v>
+      </c>
+      <c r="X62">
+        <v>2.65</v>
+      </c>
+      <c r="Y62">
+        <v>3.05</v>
+      </c>
+      <c r="Z62">
+        <v>1.35</v>
+      </c>
+      <c r="AA62">
+        <v>7.5</v>
+      </c>
+      <c r="AB62">
+        <v>1.06</v>
+      </c>
+      <c r="AC62">
+        <v>2</v>
+      </c>
+      <c r="AD62">
+        <v>3.3</v>
+      </c>
+      <c r="AE62">
+        <v>3.75</v>
+      </c>
+      <c r="AF62">
+        <v>1.05</v>
+      </c>
+      <c r="AG62">
+        <v>8</v>
+      </c>
+      <c r="AH62">
+        <v>1.33</v>
+      </c>
+      <c r="AI62">
+        <v>3.1</v>
+      </c>
+      <c r="AJ62">
+        <v>2.1</v>
+      </c>
+      <c r="AK62">
+        <v>1.7</v>
+      </c>
+      <c r="AL62">
+        <v>1.83</v>
+      </c>
+      <c r="AM62">
+        <v>1.9</v>
+      </c>
+      <c r="AN62">
+        <v>1.25</v>
+      </c>
+      <c r="AO62">
+        <v>1.25</v>
+      </c>
+      <c r="AP62">
+        <v>1.72</v>
+      </c>
+      <c r="AQ62">
+        <v>2</v>
+      </c>
+      <c r="AR62">
+        <v>2</v>
+      </c>
+      <c r="AS62">
+        <v>2.33</v>
+      </c>
+      <c r="AT62">
+        <v>1.33</v>
+      </c>
+      <c r="AU62">
+        <v>1.34</v>
+      </c>
+      <c r="AV62">
+        <v>1.48</v>
+      </c>
+      <c r="AW62">
+        <v>2.82</v>
+      </c>
+      <c r="AX62">
+        <v>1.51</v>
+      </c>
+      <c r="AY62">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ62">
+        <v>3.22</v>
+      </c>
+      <c r="BA62">
+        <v>1.24</v>
+      </c>
+      <c r="BB62">
+        <v>1.43</v>
+      </c>
+      <c r="BC62">
+        <v>1.8</v>
+      </c>
+      <c r="BD62">
+        <v>2.25</v>
+      </c>
+      <c r="BE62">
+        <v>3.25</v>
+      </c>
+      <c r="BF62">
+        <v>7</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>2</v>
+      </c>
+      <c r="BI62">
+        <v>4</v>
+      </c>
+      <c r="BJ62">
+        <v>9</v>
+      </c>
+      <c r="BK62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5188537</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45011.08333333334</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>89</v>
+      </c>
+      <c r="P63" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q63">
+        <v>6</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>8</v>
+      </c>
+      <c r="T63">
+        <v>3.4</v>
+      </c>
+      <c r="U63">
+        <v>2.1</v>
+      </c>
+      <c r="V63">
+        <v>3.25</v>
+      </c>
+      <c r="W63">
+        <v>1.44</v>
+      </c>
+      <c r="X63">
+        <v>2.63</v>
+      </c>
+      <c r="Y63">
+        <v>3.25</v>
+      </c>
+      <c r="Z63">
+        <v>1.33</v>
+      </c>
+      <c r="AA63">
+        <v>9</v>
+      </c>
+      <c r="AB63">
+        <v>1.07</v>
+      </c>
+      <c r="AC63">
+        <v>2.7</v>
+      </c>
+      <c r="AD63">
+        <v>3</v>
+      </c>
+      <c r="AE63">
+        <v>2.45</v>
+      </c>
+      <c r="AF63">
+        <v>1.04</v>
+      </c>
+      <c r="AG63">
+        <v>7.6</v>
+      </c>
+      <c r="AH63">
+        <v>1.36</v>
+      </c>
+      <c r="AI63">
+        <v>2.83</v>
+      </c>
+      <c r="AJ63">
+        <v>2.1</v>
+      </c>
+      <c r="AK63">
+        <v>1.67</v>
+      </c>
+      <c r="AL63">
+        <v>1.8</v>
+      </c>
+      <c r="AM63">
+        <v>1.91</v>
+      </c>
+      <c r="AN63">
+        <v>1.4</v>
+      </c>
+      <c r="AO63">
+        <v>1.28</v>
+      </c>
+      <c r="AP63">
+        <v>1.4</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>3</v>
+      </c>
+      <c r="AS63">
+        <v>0.75</v>
+      </c>
+      <c r="AT63">
+        <v>3</v>
+      </c>
+      <c r="AU63">
+        <v>2.1</v>
+      </c>
+      <c r="AV63">
+        <v>1.28</v>
+      </c>
+      <c r="AW63">
+        <v>3.38</v>
+      </c>
+      <c r="AX63">
+        <v>1.87</v>
+      </c>
+      <c r="AY63">
+        <v>7.3</v>
+      </c>
+      <c r="AZ63">
+        <v>2.38</v>
+      </c>
+      <c r="BA63">
+        <v>1.5</v>
+      </c>
+      <c r="BB63">
+        <v>1.95</v>
+      </c>
+      <c r="BC63">
+        <v>2.38</v>
+      </c>
+      <c r="BD63">
+        <v>3.45</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>2</v>
+      </c>
+      <c r="BG63">
+        <v>2</v>
+      </c>
+      <c r="BH63">
+        <v>5</v>
+      </c>
+      <c r="BI63">
+        <v>2</v>
+      </c>
+      <c r="BJ63">
+        <v>7</v>
+      </c>
+      <c r="BK63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5188538</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45011.08333333334</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P64" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q64">
+        <v>12</v>
+      </c>
+      <c r="R64">
+        <v>4</v>
+      </c>
+      <c r="S64">
+        <v>16</v>
+      </c>
+      <c r="T64">
+        <v>3</v>
+      </c>
+      <c r="U64">
+        <v>2.1</v>
+      </c>
+      <c r="V64">
+        <v>3.6</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64">
+        <v>2.75</v>
+      </c>
+      <c r="Y64">
+        <v>3</v>
+      </c>
+      <c r="Z64">
+        <v>1.36</v>
+      </c>
+      <c r="AA64">
+        <v>8</v>
+      </c>
+      <c r="AB64">
+        <v>1.08</v>
+      </c>
+      <c r="AC64">
+        <v>2.15</v>
+      </c>
+      <c r="AD64">
+        <v>3.1</v>
+      </c>
+      <c r="AE64">
+        <v>3.1</v>
+      </c>
+      <c r="AF64">
+        <v>1.03</v>
+      </c>
+      <c r="AG64">
+        <v>8.5</v>
+      </c>
+      <c r="AH64">
+        <v>1.33</v>
+      </c>
+      <c r="AI64">
+        <v>3.1</v>
+      </c>
+      <c r="AJ64">
+        <v>2.04</v>
+      </c>
+      <c r="AK64">
+        <v>1.84</v>
+      </c>
+      <c r="AL64">
+        <v>1.73</v>
+      </c>
+      <c r="AM64">
+        <v>2</v>
+      </c>
+      <c r="AN64">
+        <v>1.33</v>
+      </c>
+      <c r="AO64">
+        <v>1.28</v>
+      </c>
+      <c r="AP64">
+        <v>1.57</v>
+      </c>
+      <c r="AQ64">
+        <v>1.33</v>
+      </c>
+      <c r="AR64">
+        <v>1.5</v>
+      </c>
+      <c r="AS64">
+        <v>1</v>
+      </c>
+      <c r="AT64">
+        <v>2</v>
+      </c>
+      <c r="AU64">
+        <v>1.45</v>
+      </c>
+      <c r="AV64">
+        <v>1.36</v>
+      </c>
+      <c r="AW64">
+        <v>2.81</v>
+      </c>
+      <c r="AX64">
+        <v>1.93</v>
+      </c>
+      <c r="AY64">
+        <v>7.2</v>
+      </c>
+      <c r="AZ64">
+        <v>2.29</v>
+      </c>
+      <c r="BA64">
+        <v>1.57</v>
+      </c>
+      <c r="BB64">
+        <v>2</v>
+      </c>
+      <c r="BC64">
+        <v>2.4</v>
+      </c>
+      <c r="BD64">
+        <v>3.6</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>3</v>
+      </c>
+      <c r="BG64">
+        <v>5</v>
+      </c>
+      <c r="BH64">
+        <v>9</v>
+      </c>
+      <c r="BI64">
+        <v>7</v>
+      </c>
+      <c r="BJ64">
+        <v>12</v>
+      </c>
+      <c r="BK64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5188539</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45011.125</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H65" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>6</v>
+      </c>
+      <c r="O65" t="s">
+        <v>131</v>
+      </c>
+      <c r="P65" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q65">
+        <v>9</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>11</v>
+      </c>
+      <c r="T65">
+        <v>3.5</v>
+      </c>
+      <c r="U65">
+        <v>2.1</v>
+      </c>
+      <c r="V65">
+        <v>3.1</v>
+      </c>
+      <c r="W65">
+        <v>1.44</v>
+      </c>
+      <c r="X65">
+        <v>2.63</v>
+      </c>
+      <c r="Y65">
+        <v>3.25</v>
+      </c>
+      <c r="Z65">
+        <v>1.33</v>
+      </c>
+      <c r="AA65">
+        <v>9</v>
+      </c>
+      <c r="AB65">
+        <v>1.07</v>
+      </c>
+      <c r="AC65">
+        <v>2.7</v>
+      </c>
+      <c r="AD65">
+        <v>3</v>
+      </c>
+      <c r="AE65">
+        <v>2.45</v>
+      </c>
+      <c r="AF65">
+        <v>1.04</v>
+      </c>
+      <c r="AG65">
+        <v>8</v>
+      </c>
+      <c r="AH65">
+        <v>1.33</v>
+      </c>
+      <c r="AI65">
+        <v>3.1</v>
+      </c>
+      <c r="AJ65">
+        <v>2.15</v>
+      </c>
+      <c r="AK65">
+        <v>1.61</v>
+      </c>
+      <c r="AL65">
+        <v>1.83</v>
+      </c>
+      <c r="AM65">
+        <v>1.83</v>
+      </c>
+      <c r="AN65">
+        <v>1.45</v>
+      </c>
+      <c r="AO65">
+        <v>1.28</v>
+      </c>
+      <c r="AP65">
+        <v>1.36</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>2</v>
+      </c>
+      <c r="AS65">
+        <v>0.67</v>
+      </c>
+      <c r="AT65">
+        <v>2.33</v>
+      </c>
+      <c r="AU65">
+        <v>1.36</v>
+      </c>
+      <c r="AV65">
+        <v>1.18</v>
+      </c>
+      <c r="AW65">
+        <v>2.54</v>
+      </c>
+      <c r="AX65">
+        <v>2.15</v>
+      </c>
+      <c r="AY65">
+        <v>5.5</v>
+      </c>
+      <c r="AZ65">
+        <v>1.9</v>
+      </c>
+      <c r="BA65">
+        <v>1.26</v>
+      </c>
+      <c r="BB65">
+        <v>1.54</v>
+      </c>
+      <c r="BC65">
+        <v>1.87</v>
+      </c>
+      <c r="BD65">
+        <v>2.3</v>
+      </c>
+      <c r="BE65">
+        <v>2.63</v>
+      </c>
+      <c r="BF65">
+        <v>6</v>
+      </c>
+      <c r="BG65">
+        <v>8</v>
+      </c>
+      <c r="BH65">
+        <v>4</v>
+      </c>
+      <c r="BI65">
+        <v>2</v>
+      </c>
+      <c r="BJ65">
+        <v>10</v>
+      </c>
+      <c r="BK65">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK67"/>
+  <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT2" t="n">
         <v>1.2</v>
@@ -1106,7 +1106,7 @@
         <v>0.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0.67</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0.75</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT10" t="n">
         <v>1.67</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU13" t="n">
         <v>1.28</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU21" t="n">
         <v>1.29</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU22" t="n">
         <v>1.87</v>
@@ -5166,7 +5166,7 @@
         <v>0.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6181,7 +6181,7 @@
         <v>0.75</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.24</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT31" t="n">
         <v>3</v>
@@ -6993,7 +6993,7 @@
         <v>0.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU32" t="n">
         <v>2</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT33" t="n">
         <v>2.33</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.23</v>
@@ -7805,7 +7805,7 @@
         <v>3</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU36" t="n">
         <v>2.03</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT39" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU39" t="n">
         <v>1.18</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU41" t="n">
         <v>1.56</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU42" t="n">
         <v>1.7</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT44" t="n">
         <v>0.75</v>
@@ -9835,7 +9835,7 @@
         <v>1.75</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU46" t="n">
         <v>1.63</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU47" t="n">
         <v>1</v>
@@ -10444,7 +10444,7 @@
         <v>0.75</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU49" t="n">
         <v>1.78</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
@@ -11050,10 +11050,10 @@
         <v>3</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU52" t="n">
         <v>1.6</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT54" t="n">
         <v>2.33</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU55" t="n">
         <v>1.84</v>
@@ -11865,7 +11865,7 @@
         <v>3</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU56" t="n">
         <v>1.74</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT61" t="n">
         <v>0.75</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT62" t="n">
         <v>1.33</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.45</v>
@@ -13895,7 +13895,7 @@
         <v>0.67</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU66" t="n">
         <v>1.92</v>
@@ -14150,6 +14150,2239 @@
       </c>
       <c r="BK67" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5188542</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45017.04166666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Ventforet Kofu</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>6</v>
+      </c>
+      <c r="S68" t="n">
+        <v>8</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5188543</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45017.08333333334</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>V-Varen Nagasaki</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>8</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>13</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V69" t="n">
+        <v>4</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5188544</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45017.08333333334</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Blaublitz Akita</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Renofa Yamaguchi</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>9</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>12</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5188545</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45017.08333333334</v>
+      </c>
+      <c r="F71" t="n">
+        <v>7</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Oita Trinita</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Jubilo Iwata</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['38', '59']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>8</v>
+      </c>
+      <c r="R71" t="n">
+        <v>14</v>
+      </c>
+      <c r="S71" t="n">
+        <v>22</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V71" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5188546</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45017.125</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Tokyo Verdy</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Omiya Ardija</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>7</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5188547</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45018.04166666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>7</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Roasso Kumamoto</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Tokushima Vortis</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>7</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>9</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5188548</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45018.08333333334</v>
+      </c>
+      <c r="F74" t="n">
+        <v>7</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Mito Hollyhock</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>10</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6</v>
+      </c>
+      <c r="S74" t="n">
+        <v>16</v>
+      </c>
+      <c r="T74" t="n">
+        <v>3</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V74" t="n">
+        <v>4</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5188549</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45018.08333333334</v>
+      </c>
+      <c r="F75" t="n">
+        <v>7</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Tochigi</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>ThespaKusatsu Gunma</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['77', '87']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>9</v>
+      </c>
+      <c r="T75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5188550</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45018.08333333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>7</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Fujieda MYFC</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>9</v>
+      </c>
+      <c r="S76" t="n">
+        <v>13</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V76" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5188551</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45018.08333333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Zweigen Kanazawa</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>JEF United</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['21', '54']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>6</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="n">
+        <v>4</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5188552</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45018.08333333334</v>
+      </c>
+      <c r="F78" t="n">
+        <v>7</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Fagiano Okayama</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Iwaki</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>9</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>10</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK78"/>
+  <dimension ref="A1:BK88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT3" t="n">
         <v>1.5</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT5" t="n">
         <v>1.25</v>
@@ -1715,7 +1715,7 @@
         <v>1.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" t="n">
         <v>1.28</v>
@@ -3336,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.75</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.29</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>1.75</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT23" t="n">
         <v>1.67</v>
@@ -5369,7 +5369,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.94</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU25" t="n">
         <v>2.22</v>
@@ -5775,7 +5775,7 @@
         <v>0.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.2</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT28" t="n">
         <v>2</v>
@@ -6587,7 +6587,7 @@
         <v>3</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU30" t="n">
         <v>1.61</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT32" t="n">
         <v>1.75</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT35" t="n">
         <v>1.5</v>
@@ -7805,7 +7805,7 @@
         <v>3</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>2.03</v>
@@ -8211,7 +8211,7 @@
         <v>0.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.46</v>
@@ -8820,7 +8820,7 @@
         <v>1.25</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU41" t="n">
         <v>1.56</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT42" t="n">
         <v>1.25</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU43" t="n">
         <v>1.76</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>0.84</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT49" t="n">
         <v>0.75</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>0.67</v>
       </c>
       <c r="AU49" t="n">
         <v>1.78</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU51" t="n">
         <v>1.03</v>
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU53" t="n">
         <v>1.9</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU55" t="n">
         <v>1.84</v>
@@ -12068,7 +12068,7 @@
         <v>1.33</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>1.08</v>
@@ -12271,7 +12271,7 @@
         <v>0.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU58" t="n">
         <v>1.34</v>
@@ -12471,10 +12471,10 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU59" t="n">
         <v>2.11</v>
@@ -12677,7 +12677,7 @@
         <v>3</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU60" t="n">
         <v>1.71</v>
@@ -13283,7 +13283,7 @@
         <v>3</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT63" t="n">
         <v>3</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT65" t="n">
         <v>2.33</v>
@@ -13892,7 +13892,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT66" t="n">
         <v>1.75</v>
@@ -14098,7 +14098,7 @@
         <v>1.75</v>
       </c>
       <c r="AT67" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU67" t="n">
         <v>1.43</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT68" t="n">
         <v>0.75</v>
@@ -14504,7 +14504,7 @@
         <v>0.75</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU69" t="n">
         <v>1.46</v>
@@ -14910,7 +14910,7 @@
         <v>3</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.68</v>
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU73" t="n">
         <v>1.44</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
         <v>1.5</v>
@@ -16383,6 +16383,2036 @@
       </c>
       <c r="BK78" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5188553</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45024.04166666666</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Ventforet Kofu</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['25', '45+2', '51']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>7</v>
+      </c>
+      <c r="R79" t="n">
+        <v>10</v>
+      </c>
+      <c r="S79" t="n">
+        <v>17</v>
+      </c>
+      <c r="T79" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5188554</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45024.08333333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Iwaki</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Oita Trinita</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="n">
+        <v>4</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['7', '66', '68']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>8</v>
+      </c>
+      <c r="S80" t="n">
+        <v>10</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5188555</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45024.08333333334</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ThespaKusatsu Gunma</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>V-Varen Nagasaki</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>8</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5188556</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45024.08333333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Omiya Ardija</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['7', '81']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5188557</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45024.08333333334</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>JEF United</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Tokushima Vortis</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['36', '52']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['12', '79']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>15</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>17</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V83" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5188558</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45024.08333333334</v>
+      </c>
+      <c r="F84" t="n">
+        <v>8</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Blaublitz Akita</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>6</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V84" t="n">
+        <v>5</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5188559</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45024.08333333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Tokyo Verdy</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['45+2', '90']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>14</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>16</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5188560</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45024.08333333334</v>
+      </c>
+      <c r="F86" t="n">
+        <v>8</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Fujieda MYFC</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Fagiano Okayama</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['75', '77']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['22', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>11</v>
+      </c>
+      <c r="S86" t="n">
+        <v>13</v>
+      </c>
+      <c r="T86" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5188561</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45024.08333333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Renofa Yamaguchi</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Tochigi</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>9</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>11</v>
+      </c>
+      <c r="T87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5188562</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45024.20833333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Mito Hollyhock</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Jubilo Iwata</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['8', '16', '35', '58', '59']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>8</v>
+      </c>
+      <c r="T88" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK88"/>
+  <dimension ref="A1:BK89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>2.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT18" t="n">
         <v>2.2</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT29" t="n">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>1.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU44" t="n">
         <v>1.49</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT55" t="n">
         <v>1.4</v>
@@ -12880,7 +12880,7 @@
         <v>0.75</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU61" t="n">
         <v>1.22</v>
@@ -15313,7 +15313,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT73" t="n">
         <v>0.75</v>
@@ -18413,6 +18413,209 @@
       </c>
       <c r="BK88" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5188563</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45025.125</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Roasso Kumamoto</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Zweigen Kanazawa</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['41', '61', '63']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>9</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>4</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK89"/>
+  <dimension ref="A1:BK100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT6" t="n">
         <v>1.5</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT9" t="n">
         <v>0.6</v>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT11" t="n">
         <v>1.75</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT12" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>1.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT15" t="n">
         <v>1.4</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT16" t="n">
         <v>0.6</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT17" t="n">
         <v>0.75</v>
@@ -4151,7 +4151,7 @@
         <v>1.4</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>1.87</v>
@@ -5166,7 +5166,7 @@
         <v>0.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU24" t="n">
         <v>1.94</v>
@@ -5569,10 +5569,10 @@
         <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU25" t="n">
         <v>2.22</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU26" t="n">
         <v>1.2</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT27" t="n">
         <v>0.75</v>
@@ -6181,7 +6181,7 @@
         <v>0.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU28" t="n">
         <v>1.24</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT31" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0.75</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU32" t="n">
         <v>2</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU33" t="n">
         <v>1.69</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU37" t="n">
         <v>1.19</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT38" t="n">
         <v>1.5</v>
@@ -8414,7 +8414,7 @@
         <v>0.75</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU39" t="n">
         <v>1.18</v>
@@ -8617,7 +8617,7 @@
         <v>1.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT41" t="n">
         <v>1.4</v>
@@ -9023,7 +9023,7 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU42" t="n">
         <v>1.7</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT43" t="n">
         <v>1.75</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT44" t="n">
         <v>0.6</v>
@@ -9632,7 +9632,7 @@
         <v>1.75</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU45" t="n">
         <v>0.84</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT46" t="n">
         <v>0.75</v>
@@ -10038,7 +10038,7 @@
         <v>1.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU47" t="n">
         <v>1</v>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="AT48" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>1.75</v>
       </c>
       <c r="AT51" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU51" t="n">
         <v>1.03</v>
@@ -11050,10 +11050,10 @@
         <v>3</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT52" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU52" t="n">
         <v>1.6</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT53" t="n">
         <v>1.5</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU54" t="n">
         <v>1.51</v>
@@ -11865,7 +11865,7 @@
         <v>3</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU56" t="n">
         <v>1.74</v>
@@ -12065,10 +12065,10 @@
         <v>1.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU57" t="n">
         <v>1.08</v>
@@ -12268,10 +12268,10 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU58" t="n">
         <v>1.34</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT60" t="n">
         <v>1.75</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU62" t="n">
         <v>1.34</v>
@@ -13286,7 +13286,7 @@
         <v>0.6</v>
       </c>
       <c r="AT63" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU63" t="n">
         <v>2.1</v>
@@ -13692,7 +13692,7 @@
         <v>0.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU65" t="n">
         <v>1.36</v>
@@ -13892,10 +13892,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU66" t="n">
         <v>1.92</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT67" t="n">
         <v>0.25</v>
@@ -14707,7 +14707,7 @@
         <v>1.33</v>
       </c>
       <c r="AT70" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.27</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT72" t="n">
         <v>0</v>
@@ -15519,7 +15519,7 @@
         <v>0</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU74" t="n">
         <v>0.52</v>
@@ -15719,10 +15719,10 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU75" t="n">
         <v>1.36</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU77" t="n">
         <v>1.68</v>
@@ -16328,10 +16328,10 @@
         <v>2</v>
       </c>
       <c r="AS78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT78" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>1.67</v>
       </c>
       <c r="AU78" t="n">
         <v>1.7</v>
@@ -16534,7 +16534,7 @@
         <v>1.4</v>
       </c>
       <c r="AT79" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU79" t="n">
         <v>1.23</v>
@@ -17140,10 +17140,10 @@
         <v>1.2</v>
       </c>
       <c r="AS82" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU82" t="n">
         <v>1.57</v>
@@ -17549,7 +17549,7 @@
         <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU84" t="n">
         <v>1.51</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT85" t="n">
         <v>1.5</v>
@@ -17952,7 +17952,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT86" t="n">
         <v>1.5</v>
@@ -18616,6 +18616,2239 @@
       </c>
       <c r="BK89" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5188574</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45028.29166666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>9</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Oita Trinita</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Renofa Yamaguchi</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['44', '45+2', '72']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5188573</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45028.29166666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>9</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>V-Varen Nagasaki</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Ventforet Kofu</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['68', '82']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>9</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5188572</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45028.29166666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>9</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Tokushima Vortis</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Mito Hollyhock</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['58', '69']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>9</v>
+      </c>
+      <c r="T92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5188570</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45028.29166666666</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Fujieda MYFC</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>JEF United</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>4</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['12', '40', '57']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>10</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5188569</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45028.29166666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>9</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Jubilo Iwata</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>6</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>8</v>
+      </c>
+      <c r="T94" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5188571</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45028.29166666666</v>
+      </c>
+      <c r="F95" t="n">
+        <v>9</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Fagiano Okayama</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Roasso Kumamoto</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>8</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5188567</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45028.29166666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Zweigen Kanazawa</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Iwaki</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['6', '14', '37']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>7</v>
+      </c>
+      <c r="T96" t="n">
+        <v>4</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5188566</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45028.29166666666</v>
+      </c>
+      <c r="F97" t="n">
+        <v>9</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Tokyo Verdy</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Blaublitz Akita</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['51', '64']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>8</v>
+      </c>
+      <c r="R97" t="n">
+        <v>6</v>
+      </c>
+      <c r="S97" t="n">
+        <v>14</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V97" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5188565</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45028.29166666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>9</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Omiya Ardija</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>ThespaKusatsu Gunma</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>6</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1</v>
+      </c>
+      <c r="S98" t="n">
+        <v>7</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5188564</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45028.29166666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Tochigi</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['9', '54']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>11</v>
+      </c>
+      <c r="S99" t="n">
+        <v>14</v>
+      </c>
+      <c r="T99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5188568</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45028.29166666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>8</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Japan J2 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK100"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT2" t="n">
         <v>0.86</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT10" t="n">
         <v>1.8</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
         <v>0.75</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT14" t="n">
         <v>0.86</v>
@@ -3542,7 +3542,7 @@
         <v>1.4</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU22" t="n">
         <v>1.87</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT23" t="n">
         <v>1.25</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>0.86</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT26" t="n">
         <v>1.8</v>
@@ -5978,7 +5978,7 @@
         <v>1.75</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
         <v>1.5</v>
@@ -6587,7 +6587,7 @@
         <v>3</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.61</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU32" t="n">
         <v>2</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU35" t="n">
         <v>1.23</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU37" t="n">
         <v>1.19</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU38" t="n">
         <v>1.46</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT39" t="n">
         <v>1.25</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT40" t="n">
         <v>0.6</v>
@@ -8820,7 +8820,7 @@
         <v>1.6</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU41" t="n">
         <v>1.56</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT42" t="n">
         <v>1.6</v>
@@ -9226,7 +9226,7 @@
         <v>1.2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU43" t="n">
         <v>1.76</v>
@@ -9429,7 +9429,7 @@
         <v>1.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.49</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU46" t="n">
         <v>1.63</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT47" t="n">
         <v>1.6</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT49" t="n">
         <v>0.75</v>
@@ -11256,7 +11256,7 @@
         <v>1.4</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU53" t="n">
         <v>1.9</v>
@@ -11662,7 +11662,7 @@
         <v>1.4</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU55" t="n">
         <v>1.84</v>
@@ -12268,7 +12268,7 @@
         <v>2.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT58" t="n">
         <v>1.83</v>
@@ -12471,10 +12471,10 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU59" t="n">
         <v>2.11</v>
@@ -12677,7 +12677,7 @@
         <v>2.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU60" t="n">
         <v>1.71</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU61" t="n">
         <v>1.22</v>
@@ -13083,7 +13083,7 @@
         <v>2.6</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU62" t="n">
         <v>1.34</v>
@@ -13283,7 +13283,7 @@
         <v>3</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
         <v>2.5</v>
@@ -13486,10 +13486,10 @@
         <v>1.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU64" t="n">
         <v>1.45</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT65" t="n">
         <v>1.75</v>
@@ -13895,7 +13895,7 @@
         <v>1.2</v>
       </c>
       <c r="AT66" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.92</v>
@@ -14095,10 +14095,10 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU67" t="n">
         <v>1.43</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU68" t="n">
         <v>1.21</v>
@@ -14501,10 +14501,10 @@
         <v>1.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU69" t="n">
         <v>1.46</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT70" t="n">
         <v>1.5</v>
@@ -15722,7 +15722,7 @@
         <v>1.6</v>
       </c>
       <c r="AT75" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU75" t="n">
         <v>1.36</v>
@@ -15922,10 +15922,10 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU76" t="n">
         <v>1.63</v>
@@ -16531,7 +16531,7 @@
         <v>1.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT79" t="n">
         <v>1.8</v>
@@ -16734,10 +16734,10 @@
         <v>1.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU80" t="n">
         <v>1.83</v>
@@ -16940,7 +16940,7 @@
         <v>1.75</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU81" t="n">
         <v>0.95</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT83" t="n">
         <v>0.75</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT84" t="n">
         <v>1.83</v>
@@ -17752,7 +17752,7 @@
         <v>1.2</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU85" t="n">
         <v>1.9</v>
@@ -17955,7 +17955,7 @@
         <v>1.4</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU86" t="n">
         <v>1.59</v>
@@ -18155,10 +18155,10 @@
         <v>0</v>
       </c>
       <c r="AS87" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU87" t="n">
         <v>1.46</v>
@@ -18358,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -18564,7 +18564,7 @@
         <v>1.4</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU89" t="n">
         <v>1.53</v>
@@ -19170,7 +19170,7 @@
         <v>1.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT92" t="n">
         <v>1.6</v>
@@ -19576,7 +19576,7 @@
         <v>3</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT94" t="n">
         <v>2.5</v>
@@ -19782,7 +19782,7 @@
         <v>1.2</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU95" t="n">
         <v>1.61</v>
@@ -20391,7 +20391,7 @@
         <v>2.4</v>
       </c>
       <c r="AT98" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU98" t="n">
         <v>1.6</v>
@@ -20849,6 +20849,2239 @@
       </c>
       <c r="BK100" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5188575</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45032.04166666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Ventforet Kofu</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Tochigi</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>9</v>
+      </c>
+      <c r="T101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V101" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5188581</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45032.08333333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Oita Trinita</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>4</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['23', '33', '39']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5188583</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45032.08333333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Tokushima Vortis</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>V-Varen Nagasaki</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['26', '55', '88', '90']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>8</v>
+      </c>
+      <c r="T103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5188582</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45032.08333333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Renofa Yamaguchi</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>6</v>
+      </c>
+      <c r="N104" t="n">
+        <v>6</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['15', '19', '65', '71', '85', '88']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V104" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5188580</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45032.08333333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>JEF United</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Tokyo Verdy</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>7</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2</v>
+      </c>
+      <c r="S105" t="n">
+        <v>9</v>
+      </c>
+      <c r="T105" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5188576</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45032.08333333334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Fagiano Okayama</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>9</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>12</v>
+      </c>
+      <c r="T106" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5188578</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45032.08333333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>10</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Zweigen Kanazawa</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>8</v>
+      </c>
+      <c r="S107" t="n">
+        <v>13</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V107" t="n">
+        <v>4</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5188577</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45032.08333333334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Blaublitz Akita</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Omiya Ardija</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['61', '84']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>10</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1</v>
+      </c>
+      <c r="S108" t="n">
+        <v>11</v>
+      </c>
+      <c r="T108" t="n">
+        <v>3</v>
+      </c>
+      <c r="U108" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V108" t="n">
+        <v>4</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X108" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5188579</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45032.08333333334</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Iwaki</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>ThespaKusatsu Gunma</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['6', '49']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>6</v>
+      </c>
+      <c r="R109" t="n">
+        <v>6</v>
+      </c>
+      <c r="S109" t="n">
+        <v>12</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V109" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X109" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5188584</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45032.125</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Mito Hollyhock</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Fujieda MYFC</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="n">
+        <v>5</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['15', '43', '67', '78']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>8</v>
+      </c>
+      <c r="T110" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5188585</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Japan J2 League</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45032.16666666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Jubilo Iwata</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Roasso Kumamoto</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>10</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>13</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V111" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
